--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/20/seed4/result_data_RandomForest.xlsx
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.451899999999999</v>
+        <v>5.460199999999998</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.773199999999995</v>
+        <v>6.659899999999999</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.317800000000002</v>
+        <v>6.329600000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.610599999999998</v>
+        <v>6.994499999999992</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.990500000000003</v>
+        <v>8.7942</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.291900000000006</v>
+        <v>5.511900000000006</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.039000000000002</v>
+        <v>6.238900000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.100299999999998</v>
+        <v>5.174699999999997</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.754600000000003</v>
+        <v>8.755099999999999</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.091400000000007</v>
+        <v>9.058500000000006</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.877300000000004</v>
+        <v>5.038800000000004</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.999499999999989</v>
+        <v>6.90229999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.109999999999996</v>
+        <v>5.013299999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.304699999999996</v>
+        <v>5.307199999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.186000000000002</v>
+        <v>5.1415</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.940600000000003</v>
+        <v>9.964500000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.864099999999997</v>
+        <v>5.455899999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.567899999999998</v>
+        <v>5.477699999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.483199999999999</v>
+        <v>5.615999999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.870799999999998</v>
+        <v>5.488299999999998</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
